--- a/postcard.xlsx
+++ b/postcard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoshihara/Dropbox/ovis-repos/postcard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842FF6F7-D679-5345-97BB-A4C911D2186D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EC2E58-0A0E-5C48-BC2C-A659E40A1468}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="2380" windowWidth="25440" windowHeight="14180" xr2:uid="{5FF70D9E-4680-7A45-A7E5-7E402F473C17}"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="14180" xr2:uid="{5FF70D9E-4680-7A45-A7E5-7E402F473C17}"/>
   </bookViews>
   <sheets>
     <sheet name="2019年" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,6 @@
     <t>東京都千代田区一−一</t>
   </si>
   <si>
-    <t xml:space="preserve"> 東京都新宿区内藤町十一</t>
-  </si>
-  <si>
     <t>次郎</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>氏</t>
+  </si>
+  <si>
+    <t>東京都新宿区内藤町十一</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -492,16 +492,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -548,7 +548,7 @@
         <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -556,25 +556,25 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3">
         <v>1600014</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
